--- a/medicine/Mort/Requiescat_in_pace/Requiescat_in_pace.xlsx
+++ b/medicine/Mort/Requiescat_in_pace/Requiescat_in_pace.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F2"/>
+  <dimension ref="A1:H2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,10 +490,12 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">
-Requiescat in pace (RIP) est une locution latine signifiant « Qu'il/elle repose en paix ». Elle est issue de la prière catholique pour les défunts prononcée lors de la messe de requiem[1],[2] :
+Requiescat in pace (RIP) est une locution latine signifiant « Qu'il/elle repose en paix ». Elle est issue de la prière catholique pour les défunts prononcée lors de la messe de requiem, :
 ℣. Requiem æternam dona ei, Domine.
 ℟. Et Lux perpetua luceat ei.
 ℣. Requiescat in pace.
@@ -494,7 +506,7 @@
 ℟. Ainsi soit-il.
 On la traduit généralement en français par « Repose en paix ». Cette expression est également connue sous la forme « Riposi in pace » en italien ou « Rest in Peace » en anglais.
 Cette formule apparaît sur les tombes ou les stèles funéraires dans la plupart des pays chrétiens.
-Cette locution est aussi le titre d'un poème de Léo Ferré[3].
+Cette locution est aussi le titre d'un poème de Léo Ferré.
 </t>
         </is>
       </c>
